--- a/data/trans_orig/PER_CALI_VERDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CALI_VERDE-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la calidad de zonas verdes en Barcelona</t>
+          <t>Percepción de la calidad de zonas verdes en Barcelona (tasa de respuesta: 98,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CALI_VERDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CALI_VERDE-Estudios-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7696</t>
+          <t>8282</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6121</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17855</t>
+          <t>18023</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8901</t>
+          <t>8756</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21895</t>
+          <t>21637</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6244</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20410</t>
+          <t>18925</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6599</t>
+          <t>6381</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23277</t>
+          <t>21683</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>15599</t>
+          <t>15621</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>35056</t>
+          <t>37378</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17655</t>
+          <t>17706</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36339</t>
+          <t>36081</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27633</t>
+          <t>27039</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45661</t>
+          <t>45023</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>50145</t>
+          <t>50654</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>75452</t>
+          <t>75694</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>35,34%</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31571</t>
+          <t>32586</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52557</t>
+          <t>54529</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,76%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36188</t>
+          <t>35156</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55706</t>
+          <t>54626</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>47,84%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>74421</t>
+          <t>72622</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>102829</t>
+          <t>102326</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>48,0%</t>
+          <t>47,77%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7852</t>
+          <t>7295</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24856</t>
+          <t>24338</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8160</t>
+          <t>7830</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19552</t>
+          <t>19588</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>18652</t>
+          <t>18772</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>39219</t>
+          <t>38848</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7859</t>
+          <t>7722</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17478</t>
+          <t>17397</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10810</t>
+          <t>10614</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21728</t>
+          <t>21285</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20770</t>
+          <t>20824</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>34665</t>
+          <t>35136</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20485</t>
+          <t>19991</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34062</t>
+          <t>33478</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26733</t>
+          <t>26101</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42290</t>
+          <t>41241</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>50675</t>
+          <t>50362</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>70602</t>
+          <t>69927</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,95%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>92958</t>
+          <t>91864</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>115996</t>
+          <t>115901</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>90806</t>
+          <t>90597</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>114869</t>
+          <t>113591</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>189370</t>
+          <t>189426</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>222747</t>
+          <t>222381</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>31,64%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>142716</t>
+          <t>143169</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>168481</t>
+          <t>168882</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>127725</t>
+          <t>128762</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>152689</t>
+          <t>154181</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>276795</t>
+          <t>278008</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>314326</t>
+          <t>316719</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>45,06%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47633</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69764</t>
+          <t>68058</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>46112</t>
+          <t>46613</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>65669</t>
+          <t>65890</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>100765</t>
+          <t>99003</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>128036</t>
+          <t>128369</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8443</t>
+          <t>8470</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18101</t>
+          <t>18602</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10339</t>
+          <t>10316</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20652</t>
+          <t>20756</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>20956</t>
+          <t>21098</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>34668</t>
+          <t>35122</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14127</t>
+          <t>13467</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24844</t>
+          <t>24462</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25223</t>
+          <t>24978</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>39517</t>
+          <t>39508</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>42068</t>
+          <t>41820</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>59662</t>
+          <t>60688</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55840</t>
+          <t>57290</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74791</t>
+          <t>75555</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>72705</t>
+          <t>72641</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>93776</t>
+          <t>93616</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>135264</t>
+          <t>134872</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>162773</t>
+          <t>163991</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>32,54%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77546</t>
+          <t>77116</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>99203</t>
+          <t>96346</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>96078</t>
+          <t>94968</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>118805</t>
+          <t>118824</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>180042</t>
+          <t>179782</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>210219</t>
+          <t>210499</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>41,71%</t>
+          <t>41,77%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>31285</t>
+          <t>31226</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47338</t>
+          <t>47342</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>36561</t>
+          <t>36084</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>56044</t>
+          <t>54946</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>72254</t>
+          <t>72047</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>97052</t>
+          <t>97550</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,36%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21629</t>
+          <t>21503</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>36405</t>
+          <t>36262</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>31141</t>
+          <t>31843</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>50537</t>
+          <t>50009</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>58320</t>
+          <t>57685</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>82082</t>
+          <t>81628</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>46643</t>
+          <t>46250</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>69054</t>
+          <t>68140</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>64081</t>
+          <t>64415</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>91479</t>
+          <t>89694</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>119598</t>
+          <t>116571</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>152518</t>
+          <t>150499</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,59%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>179853</t>
+          <t>179171</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>216827</t>
+          <t>214340</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>202334</t>
+          <t>204444</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>239590</t>
+          <t>241083</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>393048</t>
+          <t>392726</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>444209</t>
+          <t>444516</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>31,28%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>266185</t>
+          <t>265946</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>304243</t>
+          <t>305948</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>273758</t>
+          <t>273540</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>313621</t>
+          <t>314453</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>42,22%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>550057</t>
+          <t>549409</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>604959</t>
+          <t>605339</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>42,6%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>96990</t>
+          <t>94883</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>126512</t>
+          <t>125960</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>98446</t>
+          <t>99129</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>127351</t>
+          <t>126668</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>204070</t>
+          <t>203273</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>244550</t>
+          <t>244941</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,24%</t>
         </is>
       </c>
     </row>
